--- a/WMT.xlsx
+++ b/WMT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820D1A8C-A734-4376-8134-FDF9CF812E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E34905A-3061-4D06-B840-00FCFFC2A806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37000" yWindow="4170" windowWidth="32770" windowHeight="15380" xr2:uid="{D34B6A0E-BD75-4196-AE8C-3E013A62F06D}"/>
+    <workbookView xWindow="50490" yWindow="680" windowWidth="24340" windowHeight="15680" xr2:uid="{D34B6A0E-BD75-4196-AE8C-3E013A62F06D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
   <si>
     <t>Price</t>
   </si>
@@ -256,6 +256,27 @@
   </si>
   <si>
     <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>Q326</t>
+  </si>
+  <si>
+    <t>Q426</t>
   </si>
 </sst>
 </file>
@@ -360,14 +381,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>25066</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>36110</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>25066</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>36110</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
@@ -384,8 +405,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8254666" y="0"/>
-          <a:ext cx="0" cy="13661571"/>
+          <a:off x="10118806" y="0"/>
+          <a:ext cx="0" cy="13410727"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -410,13 +431,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>16329</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>43543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>16329</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -781,7 +802,7 @@
   <dimension ref="J2:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -791,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>96.12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="10:12" x14ac:dyDescent="0.25">
@@ -799,10 +820,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="5">
-        <v>7980.4181639999997</v>
+        <v>8016</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="10:12" x14ac:dyDescent="0.25">
@@ -811,7 +832,7 @@
       </c>
       <c r="K4" s="5">
         <f>+K2*K3</f>
-        <v>767077.79392367997</v>
+        <v>825648</v>
       </c>
     </row>
     <row r="5" spans="10:12" x14ac:dyDescent="0.25">
@@ -819,10 +840,10 @@
         <v>3</v>
       </c>
       <c r="K5" s="5">
-        <v>9311</v>
+        <v>9431</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="10:12" x14ac:dyDescent="0.25">
@@ -830,11 +851,10 @@
         <v>4</v>
       </c>
       <c r="K6" s="5">
-        <f>5595+36520+4085</f>
-        <v>46200</v>
+        <v>43488</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="10:12" x14ac:dyDescent="0.25">
@@ -843,7 +863,7 @@
       </c>
       <c r="K7" s="5">
         <f>+K4-K5+K6</f>
-        <v>803966.79392367997</v>
+        <v>859705</v>
       </c>
     </row>
   </sheetData>
@@ -853,30 +873,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EFEDCC-E7E4-47DB-A1BC-9901E0492214}">
-  <dimension ref="A1:X78"/>
+  <dimension ref="A1:AE78"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="R61" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U78" sqref="U78"/>
+      <selection pane="bottomRight" activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="3" max="12" width="9.1796875" style="2"/>
-    <col min="13" max="13" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1796875" style="2"/>
+    <col min="3" max="6" width="9.1796875" style="2"/>
+    <col min="7" max="21" width="8.6328125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -905,34 +925,50 @@
       <c r="N2" s="4">
         <v>45688</v>
       </c>
-      <c r="R2" s="3">
+      <c r="O2" s="4">
+        <f>+K2+365</f>
+        <v>45777</v>
+      </c>
+      <c r="P2" s="4">
+        <f>+L2+365</f>
+        <v>45869</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>+M2+365</f>
+        <v>45961</v>
+      </c>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="Y2" s="3">
         <v>44592</v>
       </c>
-      <c r="S2" s="3">
+      <c r="Z2" s="3">
         <v>44957</v>
       </c>
-      <c r="T2" s="3">
-        <f>+S2+365</f>
+      <c r="AA2" s="3">
+        <f>+Z2+365</f>
         <v>45322</v>
       </c>
-      <c r="U2" s="3">
-        <f>+T2+366</f>
+      <c r="AB2" s="3">
+        <f>+AA2+366</f>
         <v>45688</v>
       </c>
-      <c r="V2" s="3">
-        <f>+U2+365</f>
+      <c r="AC2" s="3">
+        <f>+AB2+365</f>
         <v>46053</v>
       </c>
-      <c r="W2" s="3">
-        <f>+V2+365</f>
+      <c r="AD2" s="3">
+        <f>+AC2+365</f>
         <v>46418</v>
       </c>
-      <c r="X2" s="3">
-        <f>+W2+365</f>
+      <c r="AE2" s="3">
+        <f>+AD2+365</f>
         <v>46783</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
@@ -969,8 +1005,32 @@
       <c r="N3" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -984,11 +1044,11 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="T4" s="5">
+      <c r="AA4" s="5">
         <v>3560</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -1002,11 +1062,11 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="T5" s="5">
+      <c r="AA5" s="5">
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1020,11 +1080,11 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="T6" s="5">
+      <c r="AA6" s="5">
         <v>695</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -1038,11 +1098,11 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="T7" s="5">
+      <c r="AA7" s="5">
         <v>599</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>48</v>
       </c>
@@ -1060,12 +1120,12 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="T8" s="5">
-        <f>SUM(T4:T7)</f>
+      <c r="AA8" s="5">
+        <f>SUM(AA4:AA7)</f>
         <v>5214</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>49</v>
       </c>
@@ -1082,11 +1142,11 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="T9" s="5">
+      <c r="AA9" s="5">
         <v>5402</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>47</v>
       </c>
@@ -1105,12 +1165,19 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
-      <c r="T10" s="6">
-        <f>+T9+T8</f>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="AA10" s="6">
+        <f>+AA9+AA8</f>
         <v>10616</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>50</v>
       </c>
@@ -1128,11 +1195,18 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="T11" s="6">
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="AA11" s="6">
         <v>368</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>51</v>
       </c>
@@ -1148,14 +1222,21 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="S12" s="13">
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="Z12" s="13">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="T12" s="13">
+      <c r="AA12" s="13">
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
@@ -1173,7 +1254,7 @@
         <v>159439</v>
       </c>
       <c r="J14" s="6">
-        <f>+T14-I14-H14-G14</f>
+        <f>+AA14-I14-H14-G14</f>
         <v>171914</v>
       </c>
       <c r="K14" s="6">
@@ -1185,18 +1266,31 @@
       <c r="M14" s="6">
         <v>168003</v>
       </c>
-      <c r="N14" s="6"/>
-      <c r="R14" s="5">
+      <c r="N14" s="6">
+        <v>178830</v>
+      </c>
+      <c r="O14" s="6">
+        <v>163981</v>
+      </c>
+      <c r="P14" s="6">
+        <v>175750</v>
+      </c>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="Y14" s="5">
         <v>567762</v>
       </c>
-      <c r="S14" s="5">
+      <c r="Z14" s="5">
         <v>605881</v>
       </c>
-      <c r="T14" s="5">
+      <c r="AA14" s="5">
         <v>642637</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
@@ -1214,7 +1308,7 @@
         <v>1365</v>
       </c>
       <c r="J15" s="6">
-        <f>+T15-I15-H15-G15</f>
+        <f>+AA15-I15-H15-G15</f>
         <v>1474</v>
       </c>
       <c r="K15" s="6">
@@ -1226,18 +1320,31 @@
       <c r="M15" s="6">
         <v>1585</v>
       </c>
-      <c r="N15" s="6"/>
-      <c r="R15" s="5">
+      <c r="N15" s="6">
+        <v>1724</v>
+      </c>
+      <c r="O15" s="6">
+        <v>1628</v>
+      </c>
+      <c r="P15" s="6">
+        <v>1652</v>
+      </c>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="Y15" s="5">
         <v>4992</v>
       </c>
-      <c r="S15" s="5">
+      <c r="Z15" s="5">
         <v>5408</v>
       </c>
-      <c r="T15" s="5">
+      <c r="AA15" s="5">
         <v>5488</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>7</v>
       </c>
@@ -1246,7 +1353,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8">
-        <f t="shared" ref="G16:M16" si="0">+G14+G15</f>
+        <f t="shared" ref="G16:V16" si="0">+G14+G15</f>
         <v>152301</v>
       </c>
       <c r="H16" s="8">
@@ -1273,21 +1380,56 @@
         <f t="shared" si="0"/>
         <v>169588</v>
       </c>
-      <c r="N16" s="8"/>
-      <c r="R16" s="7">
-        <f t="shared" ref="R16:S16" si="1">+R14+R15</f>
+      <c r="N16" s="8">
+        <f t="shared" si="0"/>
+        <v>180554</v>
+      </c>
+      <c r="O16" s="8">
+        <f t="shared" si="0"/>
+        <v>165609</v>
+      </c>
+      <c r="P16" s="8">
+        <f t="shared" si="0"/>
+        <v>177402</v>
+      </c>
+      <c r="Q16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="7">
+        <f t="shared" ref="Y16:Z16" si="1">+Y14+Y15</f>
         <v>572754</v>
       </c>
-      <c r="S16" s="7">
+      <c r="Z16" s="7">
         <f t="shared" si="1"/>
         <v>611289</v>
       </c>
-      <c r="T16" s="7">
-        <f>+T14+T15</f>
+      <c r="AA16" s="7">
+        <f>+AA14+AA15</f>
         <v>648125</v>
       </c>
     </row>
-    <row r="17" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
@@ -1305,7 +1447,7 @@
         <v>121183</v>
       </c>
       <c r="J17" s="6">
-        <f>+T17-I17-H17-G17</f>
+        <f>+AA17-I17-H17-G17</f>
         <v>131825</v>
       </c>
       <c r="K17" s="6">
@@ -1317,18 +1459,31 @@
       <c r="M17" s="6">
         <v>127340</v>
       </c>
-      <c r="N17" s="6"/>
-      <c r="R17" s="5">
+      <c r="N17" s="6">
+        <v>136172</v>
+      </c>
+      <c r="O17" s="6">
+        <v>124303</v>
+      </c>
+      <c r="P17" s="6">
+        <v>132771</v>
+      </c>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="Y17" s="5">
         <v>429000</v>
       </c>
-      <c r="S17" s="5">
+      <c r="Z17" s="5">
         <v>463721</v>
       </c>
-      <c r="T17" s="5">
+      <c r="AA17" s="5">
         <v>490142</v>
       </c>
     </row>
-    <row r="18" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
@@ -1337,7 +1492,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6">
-        <f t="shared" ref="G18:M18" si="2">+G16-G17</f>
+        <f t="shared" ref="G18:P18" si="2">+G16-G17</f>
         <v>37017</v>
       </c>
       <c r="H18" s="6">
@@ -1364,21 +1519,37 @@
         <f t="shared" si="2"/>
         <v>42248</v>
       </c>
-      <c r="N18" s="6"/>
-      <c r="R18" s="5">
-        <f t="shared" ref="R18:S18" si="3">+R16-R17</f>
+      <c r="N18" s="6">
+        <f t="shared" si="2"/>
+        <v>44382</v>
+      </c>
+      <c r="O18" s="6">
+        <f t="shared" si="2"/>
+        <v>41306</v>
+      </c>
+      <c r="P18" s="6">
+        <f t="shared" si="2"/>
+        <v>44631</v>
+      </c>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="Y18" s="5">
+        <f t="shared" ref="Y18:Z18" si="3">+Y16-Y17</f>
         <v>143754</v>
       </c>
-      <c r="S18" s="5">
+      <c r="Z18" s="5">
         <f t="shared" si="3"/>
         <v>147568</v>
       </c>
-      <c r="T18" s="5">
-        <f>+T16-T17</f>
+      <c r="AA18" s="5">
+        <f>+AA16-AA17</f>
         <v>157983</v>
       </c>
     </row>
-    <row r="19" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>24</v>
       </c>
@@ -1396,7 +1567,7 @@
         <v>33419</v>
       </c>
       <c r="J19" s="6">
-        <f>+T19-I19-H19-G19</f>
+        <f>+AA19-I19-H19-G19</f>
         <v>34309</v>
       </c>
       <c r="K19" s="6">
@@ -1408,23 +1579,36 @@
       <c r="M19" s="6">
         <v>35540</v>
       </c>
-      <c r="N19" s="6"/>
-      <c r="R19" s="5">
+      <c r="N19" s="6">
+        <v>36523</v>
+      </c>
+      <c r="O19" s="6">
+        <v>34171</v>
+      </c>
+      <c r="P19" s="6">
+        <v>37345</v>
+      </c>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="Y19" s="5">
         <v>117812</v>
       </c>
-      <c r="S19" s="5">
+      <c r="Z19" s="5">
         <v>127140</v>
       </c>
-      <c r="T19" s="5">
+      <c r="AA19" s="5">
         <v>130971</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" ref="G20:M20" si="4">+G18-G19</f>
+        <f t="shared" ref="G20:P20" si="4">+G18-G19</f>
         <v>6240</v>
       </c>
       <c r="H20" s="6">
@@ -1451,20 +1635,32 @@
         <f t="shared" si="4"/>
         <v>6708</v>
       </c>
-      <c r="R20" s="5">
-        <f t="shared" ref="R20:S20" si="5">+R18-R19</f>
+      <c r="N20" s="6">
+        <f t="shared" si="4"/>
+        <v>7859</v>
+      </c>
+      <c r="O20" s="6">
+        <f t="shared" si="4"/>
+        <v>7135</v>
+      </c>
+      <c r="P20" s="6">
+        <f t="shared" si="4"/>
+        <v>7286</v>
+      </c>
+      <c r="Y20" s="5">
+        <f t="shared" ref="Y20:Z20" si="5">+Y18-Y19</f>
         <v>25942</v>
       </c>
-      <c r="S20" s="5">
+      <c r="Z20" s="5">
         <f t="shared" si="5"/>
         <v>20428</v>
       </c>
-      <c r="T20" s="5">
-        <f>+T18-T19</f>
+      <c r="AA20" s="5">
+        <f>+AA18-AA19</f>
         <v>27012</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>27</v>
       </c>
@@ -1481,7 +1677,7 @@
         <v>-537</v>
       </c>
       <c r="J21" s="6">
-        <f>+T21-I21-H21-G21</f>
+        <f>+AA21-I21-H21-G21</f>
         <v>-4486</v>
       </c>
       <c r="K21" s="6">
@@ -1496,20 +1692,29 @@
         <f>-496-122+140-132</f>
         <v>-610</v>
       </c>
-      <c r="R21" s="5">
+      <c r="N21" s="2">
+        <v>-602</v>
+      </c>
+      <c r="O21" s="2">
+        <v>-544</v>
+      </c>
+      <c r="P21" s="2">
+        <v>-675</v>
+      </c>
+      <c r="Y21" s="5">
         <f>-1836-3000</f>
         <v>-4836</v>
       </c>
-      <c r="S21" s="5">
+      <c r="Z21" s="5">
         <f>-1874-1538</f>
         <v>-3412</v>
       </c>
-      <c r="T21" s="5">
+      <c r="AA21" s="5">
         <f>-2137-3027</f>
         <v>-5164</v>
       </c>
     </row>
-    <row r="22" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
@@ -1545,21 +1750,37 @@
         <f>+M20+M21</f>
         <v>6098</v>
       </c>
-      <c r="N22" s="6"/>
-      <c r="R22" s="5">
-        <f>+R20+R21</f>
+      <c r="N22" s="6">
+        <f t="shared" ref="N22:P22" si="7">+N20+N21</f>
+        <v>7257</v>
+      </c>
+      <c r="O22" s="6">
+        <f t="shared" si="7"/>
+        <v>6591</v>
+      </c>
+      <c r="P22" s="6">
+        <f t="shared" si="7"/>
+        <v>6611</v>
+      </c>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="Y22" s="5">
+        <f>+Y20+Y21</f>
         <v>21106</v>
       </c>
-      <c r="S22" s="5">
-        <f>+S20+S21</f>
+      <c r="Z22" s="5">
+        <f>+Z20+Z21</f>
         <v>17016</v>
       </c>
-      <c r="T22" s="5">
-        <f>+T20+T21</f>
+      <c r="AA22" s="5">
+        <f>+AA20+AA21</f>
         <v>21848</v>
       </c>
     </row>
-    <row r="23" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>28</v>
       </c>
@@ -1579,7 +1800,7 @@
         <v>272</v>
       </c>
       <c r="J23" s="6">
-        <f>+T23-I23-H23-G23</f>
+        <f>+AA23-I23-H23-G23</f>
         <v>2214</v>
       </c>
       <c r="K23" s="6">
@@ -1593,21 +1814,34 @@
       <c r="M23" s="6">
         <v>1384</v>
       </c>
-      <c r="N23" s="6"/>
-      <c r="R23" s="5">
+      <c r="N23" s="6">
+        <v>1538</v>
+      </c>
+      <c r="O23" s="6">
+        <v>1355</v>
+      </c>
+      <c r="P23" s="6">
+        <v>2168</v>
+      </c>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="Y23" s="5">
         <f>4756+267</f>
         <v>5023</v>
       </c>
-      <c r="S23" s="5">
+      <c r="Z23" s="5">
         <f>5724-388</f>
         <v>5336</v>
       </c>
-      <c r="T23" s="5">
+      <c r="AA23" s="5">
         <f>5578+759</f>
         <v>6337</v>
       </c>
     </row>
-    <row r="24" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>29</v>
       </c>
@@ -1616,11 +1850,11 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6">
-        <f t="shared" ref="G24:M24" si="7">+G22-G23</f>
+        <f t="shared" ref="G24:P24" si="8">+G22-G23</f>
         <v>1673</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7891</v>
       </c>
       <c r="I24" s="6">
@@ -1632,77 +1866,105 @@
         <v>554</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5104</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4501</v>
       </c>
       <c r="M24" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4714</v>
       </c>
-      <c r="N24" s="6"/>
-      <c r="R24" s="5">
-        <f t="shared" ref="R24:S24" si="8">+R22-R23</f>
+      <c r="N24" s="6">
+        <f t="shared" si="8"/>
+        <v>5719</v>
+      </c>
+      <c r="O24" s="6">
+        <f t="shared" si="8"/>
+        <v>5236</v>
+      </c>
+      <c r="P24" s="6">
+        <f t="shared" si="8"/>
+        <v>4443</v>
+      </c>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="Y24" s="5">
+        <f t="shared" ref="Y24:Z24" si="9">+Y22-Y23</f>
         <v>16083</v>
       </c>
-      <c r="S24" s="5">
-        <f t="shared" si="8"/>
+      <c r="Z24" s="5">
+        <f t="shared" si="9"/>
         <v>11680</v>
       </c>
-      <c r="T24" s="5">
-        <f>+T22-T23</f>
+      <c r="AA24" s="5">
+        <f>+AA22-AA23</f>
         <v>15511</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G25" s="9">
-        <f t="shared" ref="G25:M25" si="9">+G24/G26</f>
+        <f t="shared" ref="G25:P25" si="10">+G24/G26</f>
         <v>0.20623767258382644</v>
       </c>
       <c r="H25" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.97323630981746423</v>
       </c>
       <c r="I25" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.66498150431565972</v>
       </c>
       <c r="J25" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.8327577701036007E-2</v>
       </c>
       <c r="K25" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.63137060860959926</v>
       </c>
       <c r="L25" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.55698552159386217</v>
       </c>
       <c r="M25" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.58327146745854985</v>
       </c>
-      <c r="R25" s="1">
-        <f>+R24/R26</f>
+      <c r="N25" s="9">
+        <f t="shared" si="10"/>
+        <v>0.70797227036395149</v>
+      </c>
+      <c r="O25" s="9">
+        <f t="shared" si="10"/>
+        <v>0.65035399329275867</v>
+      </c>
+      <c r="P25" s="9">
+        <f t="shared" si="10"/>
+        <v>0.55426646706586824</v>
+      </c>
+      <c r="Y25" s="1">
+        <f>+Y24/Y26</f>
         <v>1.9112299465240641</v>
       </c>
-      <c r="S25" s="1">
-        <f t="shared" ref="S25:T25" si="10">+S24/S26</f>
+      <c r="Z25" s="1">
+        <f t="shared" ref="Z25:AA25" si="11">+Z24/Z26</f>
         <v>1.4240429163618629</v>
       </c>
-      <c r="T25" s="1">
-        <f t="shared" si="10"/>
+      <c r="AA25" s="1">
+        <f t="shared" si="11"/>
         <v>1.9130488406512087</v>
       </c>
     </row>
-    <row r="26" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>1</v>
       </c>
@@ -1720,7 +1982,7 @@
         <v>8110</v>
       </c>
       <c r="J26" s="6">
-        <f>T26</f>
+        <f>AA26</f>
         <v>8108</v>
       </c>
       <c r="K26" s="6">
@@ -1732,18 +1994,31 @@
       <c r="M26" s="6">
         <v>8082</v>
       </c>
-      <c r="N26" s="6"/>
-      <c r="R26" s="5">
+      <c r="N26" s="6">
+        <v>8078</v>
+      </c>
+      <c r="O26" s="6">
+        <v>8051</v>
+      </c>
+      <c r="P26" s="6">
+        <v>8016</v>
+      </c>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="Y26" s="5">
         <v>8415</v>
       </c>
-      <c r="S26" s="5">
+      <c r="Z26" s="5">
         <v>8202</v>
       </c>
-      <c r="T26" s="5">
+      <c r="AA26" s="5">
         <v>8108</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>46</v>
       </c>
@@ -1759,99 +2034,142 @@
         <f>M16/I16-1</f>
         <v>5.4625506828188453E-2</v>
       </c>
-      <c r="S28" s="10">
-        <f>+S16/R16-1</f>
+      <c r="N28" s="12">
+        <f t="shared" ref="N28:P28" si="12">N16/J16-1</f>
+        <v>4.1329273075414674E-2</v>
+      </c>
+      <c r="O28" s="12">
+        <f t="shared" si="12"/>
+        <v>2.5391931049855154E-2</v>
+      </c>
+      <c r="P28" s="12">
+        <f t="shared" si="12"/>
+        <v>4.7639294888829786E-2</v>
+      </c>
+      <c r="Z28" s="10">
+        <f>+Z16/Y16-1</f>
         <v>6.7280193590965709E-2</v>
       </c>
-      <c r="T28" s="10">
-        <f>+T16/S16-1</f>
+      <c r="AA28" s="10">
+        <f>+AA16/Z16-1</f>
         <v>6.02595499019285E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>52</v>
       </c>
       <c r="G29" s="12">
-        <f t="shared" ref="G29:I29" si="11">+G18/G16</f>
+        <f t="shared" ref="G29:J29" si="13">+G18/G16</f>
         <v>0.24305158863040952</v>
       </c>
       <c r="H29" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.24612700455355374</v>
       </c>
       <c r="I29" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.24639312454914056</v>
+      </c>
+      <c r="J29" s="12">
+        <f t="shared" si="13"/>
+        <v>0.23971093731976839</v>
       </c>
       <c r="K29" s="12">
         <f>+K18/K16</f>
         <v>0.24814250687272457</v>
       </c>
       <c r="L29" s="12">
-        <f t="shared" ref="L29:M29" si="12">+L18/L16</f>
+        <f t="shared" ref="L29:M29" si="14">+L18/L16</f>
         <v>0.25112941801753919</v>
       </c>
       <c r="M29" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.24912140009906361</v>
       </c>
-      <c r="R29" s="12">
-        <f t="shared" ref="R29:T29" si="13">+R18/R16</f>
+      <c r="N29" s="12">
+        <f t="shared" ref="N29:P29" si="15">+N18/N16</f>
+        <v>0.24581011774870676</v>
+      </c>
+      <c r="O29" s="12">
+        <f t="shared" si="15"/>
+        <v>0.24941881177955305</v>
+      </c>
+      <c r="P29" s="12">
+        <f t="shared" si="15"/>
+        <v>0.25158115466567454</v>
+      </c>
+      <c r="Y29" s="12">
+        <f t="shared" ref="Y29:AA29" si="16">+Y18/Y16</f>
         <v>0.25098733487675334</v>
       </c>
-      <c r="S29" s="12">
-        <f t="shared" si="13"/>
+      <c r="Z29" s="12">
+        <f t="shared" si="16"/>
         <v>0.24140463839525986</v>
       </c>
-      <c r="T29" s="12">
-        <f t="shared" si="13"/>
+      <c r="AA29" s="12">
+        <f t="shared" si="16"/>
         <v>0.24375390549662487</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>53</v>
       </c>
       <c r="G30" s="12">
-        <f t="shared" ref="G30:M30" si="14">+G20/G16</f>
+        <f t="shared" ref="G30:M30" si="17">+G20/G16</f>
         <v>4.0971497232454156E-2</v>
       </c>
       <c r="H30" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4.5263314195208869E-2</v>
       </c>
       <c r="I30" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3.8568692321086541E-2</v>
       </c>
-      <c r="J30" s="12"/>
+      <c r="J30" s="12">
+        <f t="shared" ref="J30:K30" si="18">+J20/J16</f>
+        <v>4.1836805315246729E-2</v>
+      </c>
       <c r="K30" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4.2357034945637369E-2</v>
       </c>
       <c r="L30" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4.6889302270646943E-2</v>
       </c>
       <c r="M30" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3.9554685473028754E-2</v>
       </c>
-      <c r="R30" s="12">
-        <f t="shared" ref="R30:S30" si="15">+R20/R16</f>
+      <c r="N30" s="12">
+        <f t="shared" ref="N30:P30" si="19">+N20/N16</f>
+        <v>4.3527144233858013E-2</v>
+      </c>
+      <c r="O30" s="12">
+        <f t="shared" si="19"/>
+        <v>4.308340730274321E-2</v>
+      </c>
+      <c r="P30" s="12">
+        <f t="shared" si="19"/>
+        <v>4.1070562902334809E-2</v>
+      </c>
+      <c r="Y30" s="12">
+        <f t="shared" ref="Y30:Z30" si="20">+Y20/Y16</f>
         <v>4.5293441861602016E-2</v>
       </c>
-      <c r="S30" s="12">
-        <f t="shared" si="15"/>
+      <c r="Z30" s="12">
+        <f t="shared" si="20"/>
         <v>3.3417908714208827E-2</v>
       </c>
-      <c r="T30" s="12">
-        <f>+T20/T16</f>
+      <c r="AA30" s="12">
+        <f>+AA20/AA16</f>
         <v>4.16771456123433E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>54</v>
       </c>
@@ -1860,32 +2178,51 @@
         <v>0.37760416666666669</v>
       </c>
       <c r="H31" s="12">
-        <f t="shared" ref="H31:M31" si="16">+H23/H22</f>
+        <f t="shared" ref="H31:M31" si="21">+H23/H22</f>
         <v>0.26437960287125944</v>
       </c>
       <c r="I31" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>4.8014121800529566E-2</v>
       </c>
-      <c r="J31" s="12"/>
+      <c r="J31" s="12">
+        <f t="shared" ref="J31:K31" si="22">+J23/J22</f>
+        <v>0.79985549132947975</v>
+      </c>
       <c r="K31" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.27448471926083867</v>
       </c>
       <c r="L31" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.27555126347980041</v>
       </c>
       <c r="M31" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0.22695965890455888</v>
       </c>
-      <c r="N31" s="12"/>
+      <c r="N31" s="12">
+        <f t="shared" ref="N31:P31" si="23">+N23/N22</f>
+        <v>0.2119333057737357</v>
+      </c>
+      <c r="O31" s="12">
+        <f t="shared" si="23"/>
+        <v>0.20558337126384463</v>
+      </c>
+      <c r="P31" s="12">
+        <f t="shared" si="23"/>
+        <v>0.32793828467705338</v>
+      </c>
+      <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
       <c r="S31" s="12"/>
       <c r="T31" s="12"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>45</v>
       </c>
@@ -1905,12 +2242,24 @@
         <f>+M34-M44</f>
         <v>-30421</v>
       </c>
-      <c r="T33" s="5">
-        <f>+T34-T44</f>
+      <c r="N33" s="6">
+        <f>+N34-N44</f>
+        <v>-30030</v>
+      </c>
+      <c r="O33" s="6">
+        <f>+O34-O44</f>
+        <v>-36889</v>
+      </c>
+      <c r="P33" s="6">
+        <f>+P34-P44</f>
+        <v>-34057</v>
+      </c>
+      <c r="AA33" s="5">
+        <f>+AA34-AA44</f>
         <v>-30590</v>
       </c>
     </row>
-    <row r="34" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>3</v>
       </c>
@@ -1933,13 +2282,26 @@
       <c r="M34" s="6">
         <v>10049</v>
       </c>
-      <c r="N34" s="6"/>
-      <c r="T34" s="5">
-        <f t="shared" ref="T34:T50" si="17">+J34</f>
+      <c r="N34" s="6">
+        <v>9037</v>
+      </c>
+      <c r="O34" s="6">
+        <v>9311</v>
+      </c>
+      <c r="P34" s="6">
+        <v>9431</v>
+      </c>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="AA34" s="5">
+        <f t="shared" ref="AA34:AA50" si="24">+J34</f>
         <v>9867</v>
       </c>
     </row>
-    <row r="35" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>38</v>
       </c>
@@ -1962,13 +2324,26 @@
       <c r="M35" s="6">
         <v>10039</v>
       </c>
-      <c r="N35" s="6"/>
-      <c r="T35" s="5">
-        <f t="shared" si="17"/>
+      <c r="N35" s="6">
+        <v>9975</v>
+      </c>
+      <c r="O35" s="6">
+        <v>9686</v>
+      </c>
+      <c r="P35" s="6">
+        <v>10518</v>
+      </c>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="AA35" s="5">
+        <f t="shared" si="24"/>
         <v>8796</v>
       </c>
     </row>
-    <row r="36" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>37</v>
       </c>
@@ -1991,13 +2366,26 @@
       <c r="M36" s="6">
         <v>63302</v>
       </c>
-      <c r="N36" s="6"/>
-      <c r="T36" s="5">
-        <f t="shared" si="17"/>
+      <c r="N36" s="6">
+        <v>56435</v>
+      </c>
+      <c r="O36" s="6">
+        <v>57467</v>
+      </c>
+      <c r="P36" s="6">
+        <v>57729</v>
+      </c>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="AA36" s="5">
+        <f t="shared" si="24"/>
         <v>54892</v>
       </c>
     </row>
-    <row r="37" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>36</v>
       </c>
@@ -2020,13 +2408,26 @@
       <c r="M37" s="6">
         <v>3548</v>
       </c>
-      <c r="N37" s="6"/>
-      <c r="T37" s="5">
-        <f t="shared" si="17"/>
+      <c r="N37" s="6">
+        <v>4011</v>
+      </c>
+      <c r="O37" s="6">
+        <v>3789</v>
+      </c>
+      <c r="P37" s="6">
+        <v>4355</v>
+      </c>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="AA37" s="5">
+        <f t="shared" si="24"/>
         <v>3322</v>
       </c>
     </row>
-    <row r="38" spans="2:20" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:27" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>35</v>
       </c>
@@ -2049,13 +2450,26 @@
       <c r="M38" s="6">
         <v>116598</v>
       </c>
-      <c r="N38" s="8"/>
-      <c r="T38" s="5">
-        <f t="shared" si="17"/>
+      <c r="N38" s="8">
+        <v>119993</v>
+      </c>
+      <c r="O38" s="8">
+        <v>121261</v>
+      </c>
+      <c r="P38" s="8">
+        <v>125476</v>
+      </c>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="AA38" s="5">
+        <f t="shared" si="24"/>
         <v>110810</v>
       </c>
     </row>
-    <row r="39" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>34</v>
       </c>
@@ -2082,15 +2496,31 @@
         <f>13701+6227</f>
         <v>19928</v>
       </c>
-      <c r="N39" s="6"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="1"/>
-      <c r="T39" s="5">
-        <f t="shared" si="17"/>
+      <c r="N39" s="6">
+        <f>13599+6112</f>
+        <v>19711</v>
+      </c>
+      <c r="O39" s="6">
+        <f>13567+6056</f>
+        <v>19623</v>
+      </c>
+      <c r="P39" s="6">
+        <f>13953+6128</f>
+        <v>20081</v>
+      </c>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="1"/>
+      <c r="AA39" s="5">
+        <f t="shared" si="24"/>
         <v>19528</v>
       </c>
     </row>
-    <row r="40" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>33</v>
       </c>
@@ -2113,13 +2543,26 @@
       <c r="M40" s="6">
         <v>27942</v>
       </c>
-      <c r="N40" s="6"/>
-      <c r="T40" s="5">
-        <f t="shared" si="17"/>
+      <c r="N40" s="6">
+        <v>28792</v>
+      </c>
+      <c r="O40" s="6">
+        <v>28866</v>
+      </c>
+      <c r="P40" s="6">
+        <v>29060</v>
+      </c>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="AA40" s="5">
+        <f t="shared" si="24"/>
         <v>28113</v>
       </c>
     </row>
-    <row r="41" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>32</v>
       </c>
@@ -2142,13 +2585,26 @@
       <c r="M41" s="6">
         <v>11993</v>
       </c>
-      <c r="N41" s="6"/>
-      <c r="T41" s="5">
-        <f t="shared" si="17"/>
+      <c r="N41" s="6">
+        <v>12869</v>
+      </c>
+      <c r="O41" s="6">
+        <v>12369</v>
+      </c>
+      <c r="P41" s="6">
+        <v>14187</v>
+      </c>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="AA41" s="5">
+        <f t="shared" si="24"/>
         <v>17071</v>
       </c>
     </row>
-    <row r="42" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>31</v>
       </c>
@@ -2175,16 +2631,32 @@
         <f>SUM(M34:M41)</f>
         <v>263399</v>
       </c>
-      <c r="N42" s="6"/>
-      <c r="T42" s="5">
-        <f>SUM(T34:T41)</f>
+      <c r="N42" s="6">
+        <f t="shared" ref="N42:P42" si="25">SUM(N34:N41)</f>
+        <v>260823</v>
+      </c>
+      <c r="O42" s="6">
+        <f t="shared" si="25"/>
+        <v>262372</v>
+      </c>
+      <c r="P42" s="6">
+        <f t="shared" si="25"/>
+        <v>270837</v>
+      </c>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="AA42" s="5">
+        <f>SUM(AA34:AA41)</f>
         <v>252399</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="T43" s="5"/>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AA43" s="5"/>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>4</v>
       </c>
@@ -2204,12 +2676,24 @@
         <f>3579+3246+33645</f>
         <v>40470</v>
       </c>
-      <c r="T44" s="5">
-        <f t="shared" si="17"/>
+      <c r="N44" s="6">
+        <f>3068+2598+33401</f>
+        <v>39067</v>
+      </c>
+      <c r="O44" s="6">
+        <f>5595+4085+36520</f>
+        <v>46200</v>
+      </c>
+      <c r="P44" s="6">
+        <f>3837+4011+35640</f>
+        <v>43488</v>
+      </c>
+      <c r="AA44" s="5">
+        <f t="shared" si="24"/>
         <v>40457</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>40</v>
       </c>
@@ -2225,12 +2709,21 @@
       <c r="M45" s="6">
         <v>62863</v>
       </c>
-      <c r="T45" s="5">
-        <f t="shared" si="17"/>
+      <c r="N45" s="6">
+        <v>58666</v>
+      </c>
+      <c r="O45" s="6">
+        <v>57700</v>
+      </c>
+      <c r="P45" s="6">
+        <v>60086</v>
+      </c>
+      <c r="AA45" s="5">
+        <f t="shared" si="24"/>
         <v>56812</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>41</v>
       </c>
@@ -2246,12 +2739,21 @@
       <c r="M46" s="6">
         <v>1674</v>
       </c>
-      <c r="T46" s="5">
-        <f t="shared" si="17"/>
+      <c r="N46" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O46" s="6">
+        <v>5660</v>
+      </c>
+      <c r="P46" s="6">
+        <v>3783</v>
+      </c>
+      <c r="AA46" s="5">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>42</v>
       </c>
@@ -2267,12 +2769,21 @@
       <c r="M47" s="6">
         <v>28117</v>
       </c>
-      <c r="T47" s="5">
-        <f t="shared" si="17"/>
+      <c r="N47" s="6">
+        <v>29345</v>
+      </c>
+      <c r="O47" s="6">
+        <v>26085</v>
+      </c>
+      <c r="P47" s="6">
+        <v>28821</v>
+      </c>
+      <c r="AA47" s="5">
+        <f t="shared" si="24"/>
         <v>28759</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>28</v>
       </c>
@@ -2292,12 +2803,24 @@
         <f>783+13748</f>
         <v>14531</v>
       </c>
-      <c r="T48" s="5">
-        <f t="shared" si="17"/>
+      <c r="N48" s="6">
+        <f>14398+608</f>
+        <v>15006</v>
+      </c>
+      <c r="O48" s="6">
+        <f>1465+13609</f>
+        <v>15074</v>
+      </c>
+      <c r="P48" s="6">
+        <f>620+15656</f>
+        <v>16276</v>
+      </c>
+      <c r="AA48" s="5">
+        <f t="shared" si="24"/>
         <v>14936</v>
       </c>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>39</v>
       </c>
@@ -2317,12 +2840,24 @@
         <f>1507+789+12927+6056</f>
         <v>21279</v>
       </c>
-      <c r="T49" s="5">
-        <f t="shared" si="17"/>
+      <c r="N49" s="6">
+        <f>12825+5923+1499+800</f>
+        <v>21047</v>
+      </c>
+      <c r="O49" s="6">
+        <f>1539+791+12797+5878</f>
+        <v>21005</v>
+      </c>
+      <c r="P49" s="6">
+        <f>1580+828+13171+5947</f>
+        <v>21526</v>
+      </c>
+      <c r="AA49" s="5">
+        <f t="shared" si="24"/>
         <v>20864</v>
       </c>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>43</v>
       </c>
@@ -2342,12 +2877,24 @@
         <f>94276+189</f>
         <v>94465</v>
       </c>
-      <c r="T50" s="5">
-        <f t="shared" si="17"/>
+      <c r="N50" s="6">
+        <f>271+91013+6408</f>
+        <v>97692</v>
+      </c>
+      <c r="O50" s="6">
+        <f>307+83793+6548</f>
+        <v>90648</v>
+      </c>
+      <c r="P50" s="6">
+        <f>90110+6440+307</f>
+        <v>96857</v>
+      </c>
+      <c r="AA50" s="5">
+        <f t="shared" si="24"/>
         <v>90571</v>
       </c>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>44</v>
       </c>
@@ -2367,16 +2914,28 @@
         <f>SUM(M44:M50)</f>
         <v>263399</v>
       </c>
-      <c r="T51" s="5">
-        <f>SUM(T44:T50)</f>
+      <c r="N51" s="6">
+        <f>SUM(N44:N50)</f>
+        <v>260823</v>
+      </c>
+      <c r="O51" s="6">
+        <f>SUM(O44:O50)</f>
+        <v>262372</v>
+      </c>
+      <c r="P51" s="6">
+        <f>SUM(P44:P50)</f>
+        <v>270837</v>
+      </c>
+      <c r="AA51" s="5">
+        <f>SUM(AA44:AA50)</f>
         <v>252399</v>
       </c>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
       <c r="M52" s="6"/>
     </row>
-    <row r="53" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>55</v>
       </c>
@@ -2385,15 +2944,15 @@
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6">
-        <f t="shared" ref="G53:I53" si="18">+G24</f>
+        <f t="shared" ref="G53:I53" si="26">+G24</f>
         <v>1673</v>
       </c>
       <c r="H53" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>7891</v>
       </c>
       <c r="I53" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>5393</v>
       </c>
       <c r="J53" s="6">
@@ -2412,13 +2971,29 @@
         <f>+M24</f>
         <v>4714</v>
       </c>
-      <c r="N53" s="6"/>
-      <c r="T53" s="5">
+      <c r="N53" s="6">
+        <f>+N24</f>
+        <v>5719</v>
+      </c>
+      <c r="O53" s="6">
+        <f>+O24</f>
+        <v>5236</v>
+      </c>
+      <c r="P53" s="6">
+        <f>+P24</f>
+        <v>4443</v>
+      </c>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="AA53" s="5">
         <f>SUM(G53:J53)</f>
         <v>15511</v>
       </c>
     </row>
-    <row r="54" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>56</v>
       </c>
@@ -2437,12 +3012,19 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
-      <c r="T54" s="5">
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="AA54" s="5">
         <f>SUM(G54:J54)</f>
         <v>16270</v>
       </c>
     </row>
-    <row r="55" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
         <v>57</v>
       </c>
@@ -2461,12 +3043,19 @@
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
-      <c r="T55" s="5">
-        <f t="shared" ref="T55:T59" si="19">SUM(G55:J55)</f>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="AA55" s="5">
+        <f t="shared" ref="AA55:AA59" si="27">SUM(G55:J55)</f>
         <v>11853</v>
       </c>
     </row>
-    <row r="56" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
         <v>58</v>
       </c>
@@ -2485,12 +3074,19 @@
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
-      <c r="T56" s="5">
-        <f t="shared" si="19"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="AA56" s="5">
+        <f t="shared" si="27"/>
         <v>3193</v>
       </c>
     </row>
-    <row r="57" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
         <v>59</v>
       </c>
@@ -2509,12 +3105,19 @@
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
-      <c r="T57" s="5">
-        <f t="shared" si="19"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="AA57" s="5">
+        <f t="shared" si="27"/>
         <v>-175</v>
       </c>
     </row>
-    <row r="58" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
         <v>60</v>
       </c>
@@ -2533,12 +3136,19 @@
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
-      <c r="T58" s="5">
-        <f t="shared" si="19"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="AA58" s="5">
+        <f t="shared" si="27"/>
         <v>2642</v>
       </c>
     </row>
-    <row r="59" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
         <v>61</v>
       </c>
@@ -2557,12 +3167,19 @@
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
-      <c r="T59" s="5">
-        <f t="shared" si="19"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="AA59" s="5">
+        <f t="shared" si="27"/>
         <v>1943</v>
       </c>
     </row>
-    <row r="60" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
         <v>62</v>
       </c>
@@ -2581,23 +3198,30 @@
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
-      <c r="R60" s="5">
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="Y60" s="5">
         <v>24181</v>
       </c>
-      <c r="S60" s="5">
+      <c r="Z60" s="5">
         <v>28841</v>
       </c>
-      <c r="T60" s="5">
-        <f>SUM(T54:T59)</f>
+      <c r="AA60" s="5">
+        <f>SUM(AA54:AA59)</f>
         <v>35726</v>
       </c>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
-    </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5"/>
+      <c r="AA61" s="5"/>
+    </row>
+    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>63</v>
       </c>
@@ -2605,18 +3229,18 @@
         <f>-20606+250</f>
         <v>-20356</v>
       </c>
-      <c r="R62" s="5">
+      <c r="Y62" s="5">
         <v>-13106</v>
       </c>
-      <c r="S62" s="5">
+      <c r="Z62" s="5">
         <v>-16857</v>
       </c>
-      <c r="T62" s="5">
-        <f t="shared" ref="T62:T64" si="20">SUM(G62:J62)</f>
+      <c r="AA62" s="5">
+        <f t="shared" ref="AA62:AA64" si="28">SUM(G62:J62)</f>
         <v>-20356</v>
       </c>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
         <v>65</v>
       </c>
@@ -2624,28 +3248,28 @@
         <f>135-9</f>
         <v>126</v>
       </c>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5">
-        <f t="shared" si="20"/>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5"/>
+      <c r="AA63" s="5">
+        <f t="shared" si="28"/>
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
         <v>60</v>
       </c>
       <c r="J64" s="6">
         <v>-1057</v>
       </c>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5">
-        <f t="shared" si="20"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5"/>
+      <c r="AA64" s="5">
+        <f t="shared" si="28"/>
         <v>-1057</v>
       </c>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>64</v>
       </c>
@@ -2653,19 +3277,19 @@
         <f>SUM(J62:J64)</f>
         <v>-21287</v>
       </c>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5">
-        <f>SUM(T62:T64)</f>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+      <c r="AA65" s="5">
+        <f>SUM(AA62:AA64)</f>
         <v>-21287</v>
       </c>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-    </row>
-    <row r="67" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+      <c r="AA66" s="5"/>
+    </row>
+    <row r="67" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>4</v>
       </c>
@@ -2684,12 +3308,19 @@
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
-      <c r="T67" s="5">
-        <f t="shared" ref="T67:T73" si="21">SUM(G67:J67)</f>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+      <c r="AA67" s="5">
+        <f t="shared" ref="AA67:AA73" si="29">SUM(G67:J67)</f>
         <v>1262</v>
       </c>
     </row>
-    <row r="68" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
         <v>41</v>
       </c>
@@ -2708,12 +3339,19 @@
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
-      <c r="T68" s="5">
-        <f t="shared" si="21"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6"/>
+      <c r="AA68" s="5">
+        <f t="shared" si="29"/>
         <v>-6140</v>
       </c>
     </row>
-    <row r="69" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
         <v>70</v>
       </c>
@@ -2732,12 +3370,19 @@
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
-      <c r="T69" s="5">
-        <f t="shared" si="21"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+      <c r="AA69" s="5">
+        <f t="shared" si="29"/>
         <v>-2779</v>
       </c>
     </row>
-    <row r="70" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
         <v>71</v>
       </c>
@@ -2756,12 +3401,19 @@
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
-      <c r="T70" s="5">
-        <f t="shared" si="21"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="AA70" s="5">
+        <f t="shared" si="29"/>
         <v>-3509</v>
       </c>
     </row>
-    <row r="71" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
         <v>60</v>
       </c>
@@ -2780,12 +3432,19 @@
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
-      <c r="T71" s="5">
-        <f t="shared" si="21"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="AA71" s="5">
+        <f t="shared" si="29"/>
         <v>-2248</v>
       </c>
     </row>
-    <row r="72" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
         <v>69</v>
       </c>
@@ -2804,12 +3463,19 @@
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
-      <c r="T72" s="5">
-        <f>SUM(T67:T71)</f>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+      <c r="AA72" s="5">
+        <f>SUM(AA67:AA71)</f>
         <v>-13414</v>
       </c>
     </row>
-    <row r="73" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
         <v>68</v>
       </c>
@@ -2828,12 +3494,19 @@
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
-      <c r="T73" s="5">
-        <f t="shared" si="21"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
+      <c r="AA73" s="5">
+        <f t="shared" si="29"/>
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
         <v>67</v>
       </c>
@@ -2852,27 +3525,34 @@
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
-      <c r="T74" s="6">
-        <f>T73+T72+T65+T60</f>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="AA74" s="6">
+        <f>AA73+AA72+AA65+AA60</f>
         <v>1094</v>
       </c>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
-    </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y75" s="5"/>
+      <c r="Z75" s="5"/>
+      <c r="AA75" s="5"/>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y76" s="5"/>
+      <c r="Z76" s="5"/>
+      <c r="AA76" s="5"/>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y77" s="5"/>
+      <c r="Z77" s="5"/>
+      <c r="AA77" s="5"/>
+    </row>
+    <row r="78" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>66</v>
       </c>
@@ -2880,16 +3560,16 @@
         <f>+J60+J62</f>
         <v>15370</v>
       </c>
-      <c r="R78" s="6">
-        <f t="shared" ref="R78:T78" si="22">+R60+R62</f>
+      <c r="Y78" s="6">
+        <f t="shared" ref="Y78:AA78" si="30">+Y60+Y62</f>
         <v>11075</v>
       </c>
-      <c r="S78" s="6">
-        <f t="shared" si="22"/>
+      <c r="Z78" s="6">
+        <f t="shared" si="30"/>
         <v>11984</v>
       </c>
-      <c r="T78" s="6">
-        <f t="shared" si="22"/>
+      <c r="AA78" s="6">
+        <f t="shared" si="30"/>
         <v>15370</v>
       </c>
     </row>
